--- a/output_furnas.xlsx
+++ b/output_furnas.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f182f256d3d26c6c/Documentos/GitHub/fph_lin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\GitHub\fph_lin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{8304A2BA-DCE1-495D-A052-62520719E3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EE06BD5-5026-4360-B679-74E97EECCCA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22183E1-FF4B-4A2A-820C-4A064C367D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RDP VERSION" sheetId="5" r:id="rId1"/>
     <sheet name="NO RDP VERSION" sheetId="1" r:id="rId2"/>
-    <sheet name="Array3" sheetId="3" r:id="rId3"/>
+    <sheet name="MAIN_VERSION" sheetId="6" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
   <si>
     <t>DISC_Q</t>
   </si>
@@ -65,6 +68,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -133,17 +137,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -151,6 +155,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -181,16 +205,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -282,7 +296,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -475,7 +489,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -513,7 +527,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1375017792"/>
@@ -575,7 +589,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1375014432"/>
@@ -623,7 +637,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -699,7 +713,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -900,7 +914,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -938,7 +952,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379083328"/>
@@ -1000,7 +1014,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379087168"/>
@@ -1048,7 +1062,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1124,7 +1138,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1317,7 +1331,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1355,7 +1369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1375017792"/>
@@ -1417,7 +1431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1375014432"/>
@@ -1465,7 +1479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1541,7 +1555,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1734,7 +1748,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1772,7 +1786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1375017792"/>
@@ -1834,7 +1848,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1375014432"/>
@@ -1882,7 +1896,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1958,7 +1972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2159,7 +2173,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2197,7 +2211,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379083328"/>
@@ -2259,7 +2273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379087168"/>
@@ -2307,7 +2321,997 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>MAPE(%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.167883211678832E-2"/>
+                  <c:y val="-3.769139698810136E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-60AA-4F4E-859D-CEAD4876ED95}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MAIN_VERSION!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MAIN_VERSION!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.62622636717238345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10559742236205159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4375136838832447E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3554187937283731E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3923599935370951E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.511719008252637E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7866985121467601E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6842572123856299E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.39597872427941E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3919990525825212E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60AA-4F4E-859D-CEAD4876ED95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1375014432"/>
+        <c:axId val="1375017792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1375014432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" b="1"/>
+                  <a:t>DISC_Q</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1375017792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1375017792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1375014432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Cortes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DE32-41EC-B132-1C9153C5D7BB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MAIN_VERSION!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MAIN_VERSION!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE32-41EC-B132-1C9153C5D7BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1379087168"/>
+        <c:axId val="1379083328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1379087168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" b="1"/>
+                  <a:t>DISC_Q</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48446277022943118"/>
+              <c:y val="0.91720366707716039"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1379083328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1379083328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1379087168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2518,6 +3522,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4583,6 +5667,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5294,6 +7410,1243 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87072B6E-FB79-4FE3-9C03-E4B6D2A1D854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F0D4F8-7B9B-493B-9F5D-F88C0A0D620F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Dados atemporais"/>
+      <sheetName val="Cota de Montante"/>
+      <sheetName val="Cota de Jusante"/>
+      <sheetName val="FPH_3Q_100pts"/>
+      <sheetName val="FPH_2Q"/>
+      <sheetName val="FPH_4Q"/>
+      <sheetName val="FPH_5Q"/>
+      <sheetName val="FPH_6Q"/>
+      <sheetName val="FPH_10Q"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="36">
+          <cell r="F36" t="str">
+            <v>PG</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>PG-Ref</v>
+          </cell>
+          <cell r="O36" t="str">
+            <v>PG - Linear</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>0</v>
+          </cell>
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+          <cell r="G37">
+            <v>0</v>
+          </cell>
+          <cell r="O37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>15.212121212121213</v>
+          </cell>
+          <cell r="F38">
+            <v>12.125309037504419</v>
+          </cell>
+          <cell r="O38">
+            <v>12.062376469014961</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>30.424242424242426</v>
+          </cell>
+          <cell r="F39">
+            <v>24.246416235490162</v>
+          </cell>
+          <cell r="O39">
+            <v>24.124752938029921</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>45.63636363636364</v>
+          </cell>
+          <cell r="F40">
+            <v>36.363355354047847</v>
+          </cell>
+          <cell r="O40">
+            <v>36.187129407044878</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>60.848484848484851</v>
+          </cell>
+          <cell r="F41">
+            <v>48.476159862691532</v>
+          </cell>
+          <cell r="O41">
+            <v>48.249505876059843</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>76.060606060606062</v>
+          </cell>
+          <cell r="F42">
+            <v>60.584862940358711</v>
+          </cell>
+          <cell r="O42">
+            <v>60.3118823450748</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>91.27272727272728</v>
+          </cell>
+          <cell r="F43">
+            <v>72.689497475409993</v>
+          </cell>
+          <cell r="O43">
+            <v>72.374258814089757</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>106.4848484848485</v>
+          </cell>
+          <cell r="F44">
+            <v>84.790096065629726</v>
+          </cell>
+          <cell r="O44">
+            <v>84.436635283104721</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>121.69696969696972</v>
+          </cell>
+          <cell r="F45">
+            <v>96.886691018225235</v>
+          </cell>
+          <cell r="O45">
+            <v>96.499011752119685</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>136.90909090909093</v>
+          </cell>
+          <cell r="F46">
+            <v>108.97931434982758</v>
+          </cell>
+          <cell r="O46">
+            <v>108.56138822113465</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>152.12121212121215</v>
+          </cell>
+          <cell r="F47">
+            <v>121.06799778649111</v>
+          </cell>
+          <cell r="O47">
+            <v>120.62376469014961</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>167.33333333333337</v>
+          </cell>
+          <cell r="F48">
+            <v>133.15277276369315</v>
+          </cell>
+          <cell r="O48">
+            <v>132.68614115916458</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>182.54545454545459</v>
+          </cell>
+          <cell r="F49">
+            <v>145.23367042633495</v>
+          </cell>
+          <cell r="O49">
+            <v>144.74851762817954</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>197.75757575757581</v>
+          </cell>
+          <cell r="F50">
+            <v>157.31072162874105</v>
+          </cell>
+          <cell r="O50">
+            <v>156.81089409719451</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>212.96969696969703</v>
+          </cell>
+          <cell r="F51">
+            <v>169.38395693465895</v>
+          </cell>
+          <cell r="O51">
+            <v>168.87327056620947</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>228.18181818181824</v>
+          </cell>
+          <cell r="F52">
+            <v>181.45340661725942</v>
+          </cell>
+          <cell r="O52">
+            <v>180.93564703522443</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>243.39393939393946</v>
+          </cell>
+          <cell r="F53">
+            <v>193.51910065913827</v>
+          </cell>
+          <cell r="O53">
+            <v>192.9980235042394</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>258.60606060606068</v>
+          </cell>
+          <cell r="F54">
+            <v>205.58106875231161</v>
+          </cell>
+          <cell r="O54">
+            <v>205.06038136122609</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>273.81818181818187</v>
+          </cell>
+          <cell r="F55">
+            <v>217.63934029822269</v>
+          </cell>
+          <cell r="O55">
+            <v>217.12272060618449</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>289.03030303030306</v>
+          </cell>
+          <cell r="F56">
+            <v>229.69394440773408</v>
+          </cell>
+          <cell r="O56">
+            <v>229.18505985114288</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>304.24242424242425</v>
+          </cell>
+          <cell r="F57">
+            <v>241.74490990113506</v>
+          </cell>
+          <cell r="O57">
+            <v>241.24739909610128</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>319.45454545454544</v>
+          </cell>
+          <cell r="F58">
+            <v>253.79226530813671</v>
+          </cell>
+          <cell r="O58">
+            <v>253.30973834105967</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>334.66666666666663</v>
+          </cell>
+          <cell r="F59">
+            <v>265.83603886787347</v>
+          </cell>
+          <cell r="O59">
+            <v>265.37207758601807</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>349.87878787878782</v>
+          </cell>
+          <cell r="F60">
+            <v>277.87625852890415</v>
+          </cell>
+          <cell r="O60">
+            <v>277.43441683097649</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>365.09090909090901</v>
+          </cell>
+          <cell r="F61">
+            <v>289.91295194921008</v>
+          </cell>
+          <cell r="O61">
+            <v>289.49675607593491</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>380.3030303030302</v>
+          </cell>
+          <cell r="F62">
+            <v>301.94614649619558</v>
+          </cell>
+          <cell r="O62">
+            <v>301.55909532089328</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>395.51515151515139</v>
+          </cell>
+          <cell r="F63">
+            <v>313.97586924668872</v>
+          </cell>
+          <cell r="O63">
+            <v>313.6214345658517</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>410.72727272727258</v>
+          </cell>
+          <cell r="F64">
+            <v>326.00214698694259</v>
+          </cell>
+          <cell r="O64">
+            <v>325.68377381081007</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>425.93939393939377</v>
+          </cell>
+          <cell r="F65">
+            <v>338.02500621262993</v>
+          </cell>
+          <cell r="O65">
+            <v>337.74611305576849</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>441.15151515151496</v>
+          </cell>
+          <cell r="F66">
+            <v>350.04447312885151</v>
+          </cell>
+          <cell r="O66">
+            <v>349.80845230072686</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>456.36363636363615</v>
+          </cell>
+          <cell r="F67">
+            <v>362.06057365012708</v>
+          </cell>
+          <cell r="O67">
+            <v>361.87079154568528</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>471.57575757575734</v>
+          </cell>
+          <cell r="F68">
+            <v>374.07333340040248</v>
+          </cell>
+          <cell r="O68">
+            <v>373.9331307906437</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>486.78787878787853</v>
+          </cell>
+          <cell r="F69">
+            <v>386.08277771304699</v>
+          </cell>
+          <cell r="O69">
+            <v>385.99547003560207</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>501.99999999999972</v>
+          </cell>
+          <cell r="F70">
+            <v>398.08893163085025</v>
+          </cell>
+          <cell r="G70">
+            <v>398.08893163085025</v>
+          </cell>
+          <cell r="O70">
+            <v>398.05780928056049</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>517.21212121212091</v>
+          </cell>
+          <cell r="F71">
+            <v>410.09181990603025</v>
+          </cell>
+          <cell r="O71">
+            <v>410.01155493380986</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>532.42424242424215</v>
+          </cell>
+          <cell r="F72">
+            <v>422.09146700022347</v>
+          </cell>
+          <cell r="O72">
+            <v>421.96530058705923</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>547.6363636363634</v>
+          </cell>
+          <cell r="F73">
+            <v>434.08789708449314</v>
+          </cell>
+          <cell r="O73">
+            <v>433.9190462403086</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>562.84848484848465</v>
+          </cell>
+          <cell r="F74">
+            <v>446.0811340393239</v>
+          </cell>
+          <cell r="O74">
+            <v>445.87279189355792</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>578.06060606060589</v>
+          </cell>
+          <cell r="F75">
+            <v>458.0712014546242</v>
+          </cell>
+          <cell r="O75">
+            <v>457.82653754680729</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>593.27272727272714</v>
+          </cell>
+          <cell r="F76">
+            <v>470.058122629727</v>
+          </cell>
+          <cell r="O76">
+            <v>469.78028320005666</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>608.48484848484838</v>
+          </cell>
+          <cell r="F77">
+            <v>482.04192057338764</v>
+          </cell>
+          <cell r="O77">
+            <v>481.73402885330597</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>623.69696969696963</v>
+          </cell>
+          <cell r="F78">
+            <v>494.02261800378398</v>
+          </cell>
+          <cell r="O78">
+            <v>493.68777450655534</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>638.90909090909088</v>
+          </cell>
+          <cell r="F79">
+            <v>506.00023734851868</v>
+          </cell>
+          <cell r="O79">
+            <v>505.64152015980471</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>654.12121212121212</v>
+          </cell>
+          <cell r="F80">
+            <v>517.97480074461816</v>
+          </cell>
+          <cell r="O80">
+            <v>517.59526581305408</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>669.33333333333337</v>
+          </cell>
+          <cell r="F81">
+            <v>529.94633003853016</v>
+          </cell>
+          <cell r="O81">
+            <v>529.54901146630334</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>684.54545454545462</v>
+          </cell>
+          <cell r="F82">
+            <v>541.9148467861271</v>
+          </cell>
+          <cell r="O82">
+            <v>541.50275711955271</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>699.75757575757586</v>
+          </cell>
+          <cell r="F83">
+            <v>553.88037225270648</v>
+          </cell>
+          <cell r="O83">
+            <v>553.45650277280208</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>714.96969696969711</v>
+          </cell>
+          <cell r="F84">
+            <v>565.84292741298361</v>
+          </cell>
+          <cell r="O84">
+            <v>565.41024842605145</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>730.18181818181836</v>
+          </cell>
+          <cell r="F85">
+            <v>577.80253295110504</v>
+          </cell>
+          <cell r="O85">
+            <v>577.36399407930082</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>745.3939393939396</v>
+          </cell>
+          <cell r="F86">
+            <v>589.75920926063475</v>
+          </cell>
+          <cell r="O86">
+            <v>589.31773973255019</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>760.60606060606085</v>
+          </cell>
+          <cell r="F87">
+            <v>601.71297644456081</v>
+          </cell>
+          <cell r="O87">
+            <v>601.27146677377129</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>775.8181818181821</v>
+          </cell>
+          <cell r="F88">
+            <v>613.66385431529795</v>
+          </cell>
+          <cell r="O88">
+            <v>613.22517520296412</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>791.03030303030334</v>
+          </cell>
+          <cell r="F89">
+            <v>625.61186239468009</v>
+          </cell>
+          <cell r="O89">
+            <v>625.17888363215684</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>806.24242424242459</v>
+          </cell>
+          <cell r="F90">
+            <v>637.55701991396859</v>
+          </cell>
+          <cell r="O90">
+            <v>637.13259206134967</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>821.45454545454584</v>
+          </cell>
+          <cell r="F91">
+            <v>649.49934581384423</v>
+          </cell>
+          <cell r="O91">
+            <v>649.0863004905425</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>836.66666666666708</v>
+          </cell>
+          <cell r="F92">
+            <v>661.43885874441355</v>
+          </cell>
+          <cell r="O92">
+            <v>661.04000891973533</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>851.87878787878833</v>
+          </cell>
+          <cell r="F93">
+            <v>673.37557706520556</v>
+          </cell>
+          <cell r="O93">
+            <v>672.99371734892816</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>867.09090909090958</v>
+          </cell>
+          <cell r="F94">
+            <v>685.30951884517629</v>
+          </cell>
+          <cell r="O94">
+            <v>684.94742577812099</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>882.30303030303082</v>
+          </cell>
+          <cell r="F95">
+            <v>697.24070186269694</v>
+          </cell>
+          <cell r="O95">
+            <v>696.90113420731382</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>897.51515151515207</v>
+          </cell>
+          <cell r="F96">
+            <v>709.16914360557075</v>
+          </cell>
+          <cell r="O96">
+            <v>708.85484263650653</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>912.72727272727332</v>
+          </cell>
+          <cell r="F97">
+            <v>721.09486127101775</v>
+          </cell>
+          <cell r="O97">
+            <v>720.80855106569936</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>927.93939393939456</v>
+          </cell>
+          <cell r="F98">
+            <v>733.01787176568621</v>
+          </cell>
+          <cell r="O98">
+            <v>732.76225949489219</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>943.15151515151581</v>
+          </cell>
+          <cell r="F99">
+            <v>744.93819170564734</v>
+          </cell>
+          <cell r="O99">
+            <v>744.71596792408502</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>958.36363636363706</v>
+          </cell>
+          <cell r="F100">
+            <v>756.85583741638868</v>
+          </cell>
+          <cell r="O100">
+            <v>756.66967635327785</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>973.5757575757583</v>
+          </cell>
+          <cell r="F101">
+            <v>768.77082493283126</v>
+          </cell>
+          <cell r="O101">
+            <v>768.62338478247068</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>988.78787878787955</v>
+          </cell>
+          <cell r="F102">
+            <v>780.6831699993154</v>
+          </cell>
+          <cell r="O102">
+            <v>780.5770932116634</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>1004.0000000000008</v>
+          </cell>
+          <cell r="F103">
+            <v>792.59288806960092</v>
+          </cell>
+          <cell r="G103">
+            <v>792.59288806960092</v>
+          </cell>
+          <cell r="O103">
+            <v>792.53080164085623</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>1019.212121212122</v>
+          </cell>
+          <cell r="F104">
+            <v>804.49999430687581</v>
+          </cell>
+          <cell r="O104">
+            <v>804.39749124306411</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>1034.4242424242432</v>
+          </cell>
+          <cell r="F105">
+            <v>816.40450358375085</v>
+          </cell>
+          <cell r="O105">
+            <v>816.26418084527177</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>1049.6363636363644</v>
+          </cell>
+          <cell r="F106">
+            <v>828.3064304822567</v>
+          </cell>
+          <cell r="O106">
+            <v>828.13087044747965</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>1064.8484848484857</v>
+          </cell>
+          <cell r="F107">
+            <v>840.20578929385351</v>
+          </cell>
+          <cell r="O107">
+            <v>839.99756004968742</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>1080.0606060606069</v>
+          </cell>
+          <cell r="F108">
+            <v>852.10259401941914</v>
+          </cell>
+          <cell r="O108">
+            <v>851.86424965189519</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>1095.2727272727282</v>
+          </cell>
+          <cell r="F109">
+            <v>863.99685836925642</v>
+          </cell>
+          <cell r="O109">
+            <v>863.73093925410308</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>1110.4848484848494</v>
+          </cell>
+          <cell r="F110">
+            <v>875.88859576309494</v>
+          </cell>
+          <cell r="O110">
+            <v>875.59762885631085</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>1125.6969696969707</v>
+          </cell>
+          <cell r="F111">
+            <v>887.777819330081</v>
+          </cell>
+          <cell r="O111">
+            <v>887.46431845851862</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>1140.9090909090919</v>
+          </cell>
+          <cell r="F112">
+            <v>899.66454190878869</v>
+          </cell>
+          <cell r="O112">
+            <v>899.3310080607265</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>1156.1212121212131</v>
+          </cell>
+          <cell r="F113">
+            <v>911.5487760472181</v>
+          </cell>
+          <cell r="O113">
+            <v>911.19769766293427</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>1171.3333333333344</v>
+          </cell>
+          <cell r="F114">
+            <v>923.43053400278768</v>
+          </cell>
+          <cell r="O114">
+            <v>923.06438726514216</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>1186.5454545454556</v>
+          </cell>
+          <cell r="F115">
+            <v>935.30982774233928</v>
+          </cell>
+          <cell r="O115">
+            <v>934.93107686734993</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>1201.7575757575769</v>
+          </cell>
+          <cell r="F116">
+            <v>947.18666894214448</v>
+          </cell>
+          <cell r="O116">
+            <v>946.7977664695577</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>1216.9696969696981</v>
+          </cell>
+          <cell r="F117">
+            <v>959.06106898788835</v>
+          </cell>
+          <cell r="O117">
+            <v>958.66445607176558</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>1232.1818181818194</v>
+          </cell>
+          <cell r="F118">
+            <v>970.93303897468627</v>
+          </cell>
+          <cell r="O118">
+            <v>970.53114567397336</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>1247.3939393939406</v>
+          </cell>
+          <cell r="F119">
+            <v>982.80258970707632</v>
+          </cell>
+          <cell r="O119">
+            <v>982.39783527618113</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>1262.6060606060619</v>
+          </cell>
+          <cell r="F120">
+            <v>994.66973169901974</v>
+          </cell>
+          <cell r="O120">
+            <v>994.26450626636051</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>1277.8181818181831</v>
+          </cell>
+          <cell r="F121">
+            <v>1006.5344751738986</v>
+          </cell>
+          <cell r="O121">
+            <v>1006.1311586445117</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>1293.0303030303044</v>
+          </cell>
+          <cell r="F122">
+            <v>1018.3968300645193</v>
+          </cell>
+          <cell r="O122">
+            <v>1017.9978110226631</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>1308.2424242424256</v>
+          </cell>
+          <cell r="F123">
+            <v>1030.2568060131164</v>
+          </cell>
+          <cell r="O123">
+            <v>1029.8644634008144</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>1323.4545454545469</v>
+          </cell>
+          <cell r="F124">
+            <v>1042.1144123713391</v>
+          </cell>
+          <cell r="O124">
+            <v>1041.7311157789657</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>1338.6666666666681</v>
+          </cell>
+          <cell r="F125">
+            <v>1053.9696582002666</v>
+          </cell>
+          <cell r="O125">
+            <v>1053.5977681571169</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>1353.8787878787894</v>
+          </cell>
+          <cell r="F126">
+            <v>1065.8225522704024</v>
+          </cell>
+          <cell r="O126">
+            <v>1065.4644205352681</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>1369.0909090909106</v>
+          </cell>
+          <cell r="F127">
+            <v>1077.6731030616668</v>
+          </cell>
+          <cell r="O127">
+            <v>1077.3310729134196</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>1384.3030303030318</v>
+          </cell>
+          <cell r="F128">
+            <v>1089.521318763407</v>
+          </cell>
+          <cell r="O128">
+            <v>1089.1977252915708</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>1399.5151515151531</v>
+          </cell>
+          <cell r="F129">
+            <v>1101.3672072743971</v>
+          </cell>
+          <cell r="O129">
+            <v>1101.064377669722</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>1414.7272727272743</v>
+          </cell>
+          <cell r="F130">
+            <v>1113.2107762028299</v>
+          </cell>
+          <cell r="O130">
+            <v>1112.9310300478733</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>1429.9393939393956</v>
+          </cell>
+          <cell r="F131">
+            <v>1125.0520328663206</v>
+          </cell>
+          <cell r="O131">
+            <v>1124.7976824260245</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>1445.1515151515168</v>
+          </cell>
+          <cell r="F132">
+            <v>1136.890984291914</v>
+          </cell>
+          <cell r="O132">
+            <v>1136.6643348041757</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>1460.3636363636381</v>
+          </cell>
+          <cell r="F133">
+            <v>1148.7276372160709</v>
+          </cell>
+          <cell r="O133">
+            <v>1148.530987182327</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>1475.5757575757593</v>
+          </cell>
+          <cell r="F134">
+            <v>1160.5619980846827</v>
+          </cell>
+          <cell r="O134">
+            <v>1160.3976395604784</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>1490.7878787878806</v>
+          </cell>
+          <cell r="F135">
+            <v>1172.3940730530574</v>
+          </cell>
+          <cell r="O135">
+            <v>1172.2642919386296</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>1506.0000000000018</v>
+          </cell>
+          <cell r="F136">
+            <v>1184.2238679859313</v>
+          </cell>
+          <cell r="G136">
+            <v>1184.2238679859313</v>
+          </cell>
+          <cell r="O136">
+            <v>1184.1309443167809</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5581,8 +8934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957A572B-95E1-4950-85E6-1DB6E1A9AA7C}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5652,18 +9005,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -5958,16 +9311,32 @@
   <mergeCells count="1">
     <mergeCell ref="B4:K4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:K6">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+      <formula>$D$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+      <formula>$D$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:K9">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>$D$9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>$D$9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B11:K11">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:K12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6051,18 +9420,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -6176,14 +9545,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2B5FFC-4D18-4EC1-8F4D-129CF1CA0F72}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -6215,39 +9586,159 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6.8004472297639369</v>
-      </c>
-      <c r="B2">
-        <v>0.211153188685899</v>
-      </c>
-      <c r="C2">
-        <v>1.806802784929433</v>
-      </c>
-      <c r="D2">
-        <v>1.776168194724544</v>
-      </c>
-      <c r="E2">
-        <v>1.7474125653791039</v>
-      </c>
-      <c r="F2">
-        <v>0.147982022698666</v>
-      </c>
-      <c r="G2">
-        <v>0.54579387545471914</v>
-      </c>
-      <c r="H2">
-        <v>0.14170467487380239</v>
-      </c>
-      <c r="I2">
-        <v>0.14171146516828831</v>
-      </c>
-      <c r="J2">
-        <v>0.14451511131285261</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>6.6706742417535381</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7.1445414481384306E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.6663089093481229</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.635277489142124</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.606147896162208</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6.549660181817009E-3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.4041458691016046</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.6674146402617741E-5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>9.302018937036616E-6</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2.805338079062056E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1">
+        <v>40</v>
+      </c>
+      <c r="K5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.62622636717238345</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.10559742236205159</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.4375136838832447E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.3554187937283731E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.3923599935370951E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.511719008252637E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.7866985121467601E-3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.6842572123856299E-3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>9.39597872427941E-4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5.3919990525825212E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3">
+        <v>38</v>
+      </c>
+      <c r="I7" s="3">
+        <v>58</v>
+      </c>
+      <c r="J7" s="3">
+        <v>78</v>
+      </c>
+      <c r="K7" s="3">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:K4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>